--- a/data/all_overviews-updated2-inriched2.xlsx
+++ b/data/all_overviews-updated2-inriched2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Το Drive μου\OMG_2022\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04729CF-8D67-463D-8D29-AA7AF2BFBB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A07611-712D-4125-A8D5-B60B3FFC3DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4710" uniqueCount="4290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="4290">
   <si>
     <t>Abdolahi H.</t>
   </si>
@@ -13559,10 +13559,10 @@
   <dimension ref="A1:P2237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="O5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2131" sqref="A2131"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14005,7 +14005,7 @@
         <v>4098</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>4098</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="10" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -16093,9 +16093,7 @@
       <c r="G98" s="18"/>
       <c r="H98" s="3"/>
       <c r="I98" s="18"/>
-      <c r="J98" s="18" t="s">
-        <v>4032</v>
-      </c>
+      <c r="J98" s="18"/>
       <c r="K98" s="4" t="s">
         <v>4190</v>
       </c>
@@ -18483,7 +18481,7 @@
       <c r="I215" s="18" t="s">
         <v>4221</v>
       </c>
-      <c r="J215" s="18" t="s">
+      <c r="K215" s="4" t="s">
         <v>4190</v>
       </c>
     </row>
@@ -20303,7 +20301,7 @@
       <c r="O368" s="19"/>
       <c r="P368" s="19"/>
     </row>
-    <row r="369" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A369" s="3" t="s">
         <v>2853</v>
       </c>
@@ -20314,7 +20312,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="370" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A370" s="3" t="s">
         <v>3049</v>
       </c>
@@ -20325,7 +20323,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="371" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A371" s="3" t="s">
         <v>403</v>
       </c>
@@ -20336,7 +20334,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="372" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A372" s="3" t="s">
         <v>4187</v>
       </c>
@@ -20346,11 +20344,11 @@
       <c r="C372" s="4">
         <v>2022</v>
       </c>
-      <c r="J372" s="18" t="s">
+      <c r="K372" s="4" t="s">
         <v>4190</v>
       </c>
     </row>
-    <row r="373" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A373" s="3" t="s">
         <v>405</v>
       </c>
@@ -20361,7 +20359,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="374" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A374" s="3" t="s">
         <v>407</v>
       </c>
@@ -20372,7 +20370,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="375" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A375" s="3" t="s">
         <v>409</v>
       </c>
@@ -20383,7 +20381,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="376" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A376" s="3" t="s">
         <v>3093</v>
       </c>
@@ -20394,7 +20392,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="377" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A377" s="3" t="s">
         <v>411</v>
       </c>
@@ -20405,7 +20403,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="378" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A378" s="3" t="s">
         <v>413</v>
       </c>
@@ -20416,7 +20414,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="379" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A379" s="3" t="s">
         <v>413</v>
       </c>
@@ -20427,7 +20425,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="380" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A380" s="3" t="s">
         <v>3679</v>
       </c>
@@ -20438,7 +20436,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="381" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A381" s="3" t="s">
         <v>3679</v>
       </c>
@@ -20449,7 +20447,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="382" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A382" s="3" t="s">
         <v>415</v>
       </c>
@@ -20460,7 +20458,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="383" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A383" s="3" t="s">
         <v>415</v>
       </c>
@@ -20471,7 +20469,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="384" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A384" s="3" t="s">
         <v>417</v>
       </c>
@@ -24930,7 +24928,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A785" s="3" t="s">
         <v>3778</v>
       </c>
@@ -24941,7 +24939,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="786" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A786" s="3" t="s">
         <v>3966</v>
       </c>
@@ -24952,7 +24950,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="787" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A787" s="3" t="s">
         <v>894</v>
       </c>
@@ -24963,7 +24961,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="788" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A788" s="3" t="s">
         <v>896</v>
       </c>
@@ -24974,7 +24972,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="789" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A789" s="3" t="s">
         <v>898</v>
       </c>
@@ -24985,7 +24983,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="790" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A790" s="3" t="s">
         <v>900</v>
       </c>
@@ -24996,7 +24994,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="791" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A791" s="3" t="s">
         <v>902</v>
       </c>
@@ -25007,7 +25005,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="792" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A792" s="3" t="s">
         <v>902</v>
       </c>
@@ -25018,7 +25016,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="793" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A793" s="3" t="s">
         <v>904</v>
       </c>
@@ -25029,7 +25027,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="794" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A794" s="3" t="s">
         <v>906</v>
       </c>
@@ -25040,7 +25038,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A795" s="3" t="s">
         <v>4205</v>
       </c>
@@ -25056,11 +25054,11 @@
       <c r="I795" s="18" t="s">
         <v>4040</v>
       </c>
-      <c r="J795" s="18" t="s">
+      <c r="K795" s="4" t="s">
         <v>4190</v>
       </c>
     </row>
-    <row r="796" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A796" s="3" t="s">
         <v>2646</v>
       </c>
@@ -25071,7 +25069,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="797" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A797" s="3" t="s">
         <v>909</v>
       </c>
@@ -25082,7 +25080,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="798" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A798" s="3" t="s">
         <v>3192</v>
       </c>
@@ -25093,7 +25091,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="799" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A799" s="3" t="s">
         <v>3895</v>
       </c>
@@ -25104,7 +25102,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="800" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A800" s="3" t="s">
         <v>2761</v>
       </c>
@@ -29697,7 +29695,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="1217" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1217" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1217" s="3" t="s">
         <v>3214</v>
       </c>
@@ -29708,7 +29706,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1218" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1218" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1218" s="3" t="s">
         <v>1366</v>
       </c>
@@ -29719,7 +29717,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="1219" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1219" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1219" s="3" t="s">
         <v>1366</v>
       </c>
@@ -29730,7 +29728,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="1220" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1220" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1220" s="3" t="s">
         <v>1369</v>
       </c>
@@ -29741,7 +29739,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="1221" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1221" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1221" s="3" t="s">
         <v>3881</v>
       </c>
@@ -29752,7 +29750,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="1222" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1222" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1222" s="3" t="s">
         <v>1371</v>
       </c>
@@ -29763,7 +29761,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="1223" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1223" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1223" s="3" t="s">
         <v>1373</v>
       </c>
@@ -29774,7 +29772,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="1224" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1224" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1224" s="3" t="s">
         <v>2683</v>
       </c>
@@ -29785,7 +29783,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="1225" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1225" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1225" s="3" t="s">
         <v>1375</v>
       </c>
@@ -29796,7 +29794,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="1226" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1226" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1226" s="3" t="s">
         <v>1377</v>
       </c>
@@ -29807,7 +29805,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="1227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1227" s="3" t="s">
         <v>3302</v>
       </c>
@@ -29818,7 +29816,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="1228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1228" s="3" t="s">
         <v>3302</v>
       </c>
@@ -29829,7 +29827,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="1229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1229" s="3" t="s">
         <v>2991</v>
       </c>
@@ -29840,7 +29838,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="1230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1230" s="3" t="s">
         <v>3405</v>
       </c>
@@ -29851,7 +29849,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="1231" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1231" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1231" s="3" t="s">
         <v>4220</v>
       </c>
@@ -29864,11 +29862,11 @@
       <c r="I1231" s="18" t="s">
         <v>4219</v>
       </c>
-      <c r="J1231" s="18" t="s">
+      <c r="K1231" s="4" t="s">
         <v>4190</v>
       </c>
     </row>
-    <row r="1232" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1232" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1232" s="3" t="s">
         <v>2798</v>
       </c>
@@ -33954,7 +33952,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="1601" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1601" s="3" t="s">
         <v>1797</v>
       </c>
@@ -33965,7 +33963,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="1602" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1602" s="3" t="s">
         <v>1797</v>
       </c>
@@ -33976,7 +33974,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="1603" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1603" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1603" s="3" t="s">
         <v>1797</v>
       </c>
@@ -33987,7 +33985,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="1604" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1604" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1604" s="3" t="s">
         <v>1797</v>
       </c>
@@ -33998,7 +33996,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="1605" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1605" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1605" s="3" t="s">
         <v>1797</v>
       </c>
@@ -34009,7 +34007,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="1606" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1606" s="3" t="s">
         <v>1797</v>
       </c>
@@ -34020,7 +34018,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="1607" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1607" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1607" s="3" t="s">
         <v>1797</v>
       </c>
@@ -34031,7 +34029,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="1608" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1608" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1608" s="3" t="s">
         <v>1797</v>
       </c>
@@ -34042,7 +34040,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1609" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1609" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1609" s="3" t="s">
         <v>1809</v>
       </c>
@@ -34053,7 +34051,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="1610" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1610" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1610" s="3" t="s">
         <v>1811</v>
       </c>
@@ -34064,7 +34062,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="1611" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1611" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1611" s="3" t="s">
         <v>3446</v>
       </c>
@@ -34075,7 +34073,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="1612" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1612" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1612" s="3" t="s">
         <v>1813</v>
       </c>
@@ -34086,7 +34084,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1613" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1613" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1613" s="3" t="s">
         <v>4210</v>
       </c>
@@ -34099,11 +34097,11 @@
       <c r="I1613" s="18" t="s">
         <v>4221</v>
       </c>
-      <c r="J1613" s="18" t="s">
+      <c r="K1613" s="4" t="s">
         <v>4190</v>
       </c>
     </row>
-    <row r="1614" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1614" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1614" s="3" t="s">
         <v>1815</v>
       </c>
@@ -34114,7 +34112,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1615" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1615" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1615" s="3" t="s">
         <v>1815</v>
       </c>
@@ -34125,7 +34123,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="1616" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1616" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1616" s="3" t="s">
         <v>1818</v>
       </c>
@@ -36270,7 +36268,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="1809" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1809" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1809" s="3" t="s">
         <v>2962</v>
       </c>
@@ -36281,7 +36279,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="1810" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1810" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1810" s="3" t="s">
         <v>2011</v>
       </c>
@@ -36292,7 +36290,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1811" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1811" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1811" s="3" t="s">
         <v>4185</v>
       </c>
@@ -36302,11 +36300,11 @@
       <c r="C1811" s="4">
         <v>2022</v>
       </c>
-      <c r="J1811" s="18" t="s">
+      <c r="K1811" s="4" t="s">
         <v>4190</v>
       </c>
     </row>
-    <row r="1812" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1812" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1812" s="3" t="s">
         <v>2013</v>
       </c>
@@ -36317,7 +36315,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1813" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1813" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1813" s="3" t="s">
         <v>2015</v>
       </c>
@@ -36328,7 +36326,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1814" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1814" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1814" s="3" t="s">
         <v>2017</v>
       </c>
@@ -36339,7 +36337,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1815" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1815" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1815" s="3" t="s">
         <v>2019</v>
       </c>
@@ -36350,7 +36348,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="1816" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1816" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1816" s="3" t="s">
         <v>3454</v>
       </c>
@@ -36361,7 +36359,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="1817" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1817" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1817" s="3" t="s">
         <v>2021</v>
       </c>
@@ -36372,7 +36370,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="1818" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1818" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1818" s="3" t="s">
         <v>2023</v>
       </c>
@@ -36383,7 +36381,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1819" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1819" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1819" s="3" t="s">
         <v>2828</v>
       </c>
@@ -36394,7 +36392,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1820" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1820" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1820" s="3" t="s">
         <v>2025</v>
       </c>
@@ -36405,7 +36403,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="1821" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1821" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1821" s="3" t="s">
         <v>3810</v>
       </c>
@@ -36416,7 +36414,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1822" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1822" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1822" s="3" t="s">
         <v>2027</v>
       </c>
@@ -36427,7 +36425,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="1823" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1823" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1823" s="3" t="s">
         <v>2027</v>
       </c>
@@ -36438,7 +36436,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="1824" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1824" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1824" s="3" t="s">
         <v>2029</v>
       </c>
@@ -36983,7 +36981,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1873" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1873" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1873" s="3" t="s">
         <v>2084</v>
       </c>
@@ -36994,7 +36992,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="1874" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1874" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1874" s="3" t="s">
         <v>2086</v>
       </c>
@@ -37005,7 +37003,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="1875" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1875" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1875" s="3" t="s">
         <v>2088</v>
       </c>
@@ -37016,7 +37014,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="1876" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1876" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1876" s="3" t="s">
         <v>2090</v>
       </c>
@@ -37027,7 +37025,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1877" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1877" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1877" s="3" t="s">
         <v>4188</v>
       </c>
@@ -37037,11 +37035,11 @@
       <c r="C1877" s="4">
         <v>2022</v>
       </c>
-      <c r="J1877" s="18" t="s">
+      <c r="K1877" s="4" t="s">
         <v>4190</v>
       </c>
     </row>
-    <row r="1878" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1878" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1878" s="3" t="s">
         <v>2092</v>
       </c>
@@ -37052,7 +37050,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="1879" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1879" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1879" s="3" t="s">
         <v>2094</v>
       </c>
@@ -37063,7 +37061,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="1880" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1880" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1880" s="3" t="s">
         <v>2096</v>
       </c>
@@ -37074,7 +37072,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="1881" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1881" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1881" s="3" t="s">
         <v>3070</v>
       </c>
@@ -37085,7 +37083,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1882" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1882" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1882" s="3" t="s">
         <v>2098</v>
       </c>
@@ -37096,7 +37094,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="1883" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1883" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1883" s="3" t="s">
         <v>2100</v>
       </c>
@@ -37107,7 +37105,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1884" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1884" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1884" s="3" t="s">
         <v>2102</v>
       </c>
@@ -37118,7 +37116,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="1885" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1885" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1885" s="3" t="s">
         <v>3169</v>
       </c>
@@ -37129,7 +37127,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="1886" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1886" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1886" s="3" t="s">
         <v>2104</v>
       </c>
@@ -37140,7 +37138,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="1887" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1887" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1887" s="3" t="s">
         <v>2106</v>
       </c>
@@ -37151,7 +37149,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="1888" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1888" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1888" s="3" t="s">
         <v>2108</v>
       </c>
@@ -40570,7 +40568,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2193" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2193" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2193" s="3" t="s">
         <v>4196</v>
       </c>
@@ -40580,11 +40578,11 @@
       <c r="C2193" s="4">
         <v>2021</v>
       </c>
-      <c r="J2193" s="18" t="s">
+      <c r="K2193" s="4" t="s">
         <v>4190</v>
       </c>
     </row>
-    <row r="2194" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2194" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2194" s="3" t="s">
         <v>3371</v>
       </c>
@@ -40595,7 +40593,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2195" s="3" t="s">
         <v>2435</v>
       </c>
@@ -40606,7 +40604,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2196" s="3" t="s">
         <v>3377</v>
       </c>
@@ -40617,7 +40615,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2197" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2197" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2197" s="3" t="s">
         <v>2437</v>
       </c>
@@ -40628,7 +40626,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2198" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2198" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2198" s="7" t="s">
         <v>2439</v>
       </c>
@@ -40640,7 +40638,7 @@
       </c>
       <c r="I2198" s="19"/>
     </row>
-    <row r="2199" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2199" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2199" s="3" t="s">
         <v>2439</v>
       </c>
@@ -40651,7 +40649,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2200" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2200" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2200" s="3" t="s">
         <v>2439</v>
       </c>
@@ -40662,7 +40660,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2201" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2201" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2201" s="3" t="s">
         <v>2439</v>
       </c>
@@ -40673,7 +40671,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2202" s="3" t="s">
         <v>2442</v>
       </c>
@@ -40684,7 +40682,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="2203" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2203" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2203" s="3" t="s">
         <v>3887</v>
       </c>
@@ -40695,7 +40693,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2204" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2204" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2204" s="3" t="s">
         <v>3128</v>
       </c>
@@ -40706,7 +40704,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2205" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2205" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2205" s="3" t="s">
         <v>2444</v>
       </c>
@@ -40717,7 +40715,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2206" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2206" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2206" s="3" t="s">
         <v>2444</v>
       </c>
@@ -40728,7 +40726,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2207" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2207" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2207" s="3" t="s">
         <v>2444</v>
       </c>
@@ -40739,7 +40737,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2208" s="3" t="s">
         <v>2444</v>
       </c>

--- a/data/all_overviews-updated2-inriched2.xlsx
+++ b/data/all_overviews-updated2-inriched2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Το Drive μου\OMG_2022\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_R\overview_megadatabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6836BE-7F3B-49C2-8DFA-C9169E0148CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A2DDAA-4E0A-4762-AC3A-BAA1EECC27CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13927,10 +13927,10 @@
   <dimension ref="A1:P2271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D227" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D243" sqref="D243"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -68943,11 +68943,6 @@
       <c r="P2271" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P2271" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P2271">
-      <sortCondition ref="A1:A2271"/>
-    </sortState>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{9CE82D6F-A945-4150-894A-1E1C57D83C0D}"/>
     <hyperlink ref="F3" r:id="rId2" xr:uid="{03270708-6472-49E2-A1BE-F844FA97514A}"/>

--- a/data/all_overviews-updated2-inriched2.xlsx
+++ b/data/all_overviews-updated2-inriched2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Το Drive μου\OMG_2022\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D62EA00-2E14-4854-8EC9-D9C5FEE62EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308A4891-FD1C-4DC8-A568-2585F8E1E8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5148" uniqueCount="4548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5212" uniqueCount="4603">
   <si>
     <t>title</t>
   </si>
@@ -12919,9 +12919,6 @@
     <t>Enhancement of adherence to therapeutic and lifestyle recommendations among hemodialysis patients: An umbrella review of interventional strategies</t>
   </si>
   <si>
-    <t>Zhong C.C.W.</t>
-  </si>
-  <si>
     <t>Peri-discharge complex interventions for reducing 30-day hospital readmissions among heart failure patients: overview of systematic reviews and network meta-analysis</t>
   </si>
   <si>
@@ -13835,6 +13832,174 @@
   </si>
   <si>
     <t>Diseases of the Esophagus</t>
+  </si>
+  <si>
+    <t>Impact of social protection on gender equality in low‐ and middle‐income countries: A systematic review of reviews</t>
+  </si>
+  <si>
+    <t>Campbell Systematic Reviews</t>
+  </si>
+  <si>
+    <t>Perera C.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/cl2.1240</t>
+  </si>
+  <si>
+    <t>Effectiveness of Peri-Discharge Complex Interventions for Reducing 30-Day Readmissions among COPD Patients: Overview of Systematic Reviews and Network Meta-Analysis</t>
+  </si>
+  <si>
+    <t>Zhong C.C.</t>
+  </si>
+  <si>
+    <t>International Journal of Integrated Care</t>
+  </si>
+  <si>
+    <t>http://doi.org/10.5334/ijic.6018</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.ajp.2020.102353</t>
+  </si>
+  <si>
+    <t>Asian Journal of Psychiatry</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1310/tsr1903-226</t>
+  </si>
+  <si>
+    <t>Topics in Stroke Rehabilitation</t>
+  </si>
+  <si>
+    <t>Role of diet in stroke incidence: an umbrella review of meta-analyses of prospective observational studies</t>
+  </si>
+  <si>
+    <t>Guo N.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12916-022-02381-6</t>
+  </si>
+  <si>
+    <t>The effectiveness of interventions to reduce adverse outcomes among older adults following Emergency Department discharge: umbrella review</t>
+  </si>
+  <si>
+    <t>BMC Geriatrics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12877-022-03007-5</t>
+  </si>
+  <si>
+    <t>Conneely M.</t>
+  </si>
+  <si>
+    <t>Cognitive impairment in people with schizophrenia: an umbrella review</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s00406-022-01416-6</t>
+  </si>
+  <si>
+    <t>European Archives of Psychiatry and Clinical Neuroscience</t>
+  </si>
+  <si>
+    <t>Gebreegziabhere Y.</t>
+  </si>
+  <si>
+    <t>How Is Quality of mHealth Interventions for Cancer Survivors Defined and Described? An Umbrella Review</t>
+  </si>
+  <si>
+    <t>Tune T.</t>
+  </si>
+  <si>
+    <t>JCO Clinical Cancer Informatics</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1200/CCI.21.00203</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/ptr.7500</t>
+  </si>
+  <si>
+    <t>Zingiberaceae plants/curcumin consumption and multiple health outcomes: An umbrella review of systematic reviews and meta-analyses of randomized controlled trials in humans</t>
+  </si>
+  <si>
+    <t>Phytotherapy Research</t>
+  </si>
+  <si>
+    <t>Risk of cancer in inflammatory bowel diseases: umbrella review and re-analysis of meta-analyses</t>
+  </si>
+  <si>
+    <t>Gastroenterology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1053/j.gastro.2022.05.038</t>
+  </si>
+  <si>
+    <t>The role of [18F]FDG PET/CT in paraneoplastic autoimmune disorders: an umbrella review</t>
+  </si>
+  <si>
+    <t>Muoio B.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.23736/S1824-4785.22.03456-2</t>
+  </si>
+  <si>
+    <t>The Quarterly Journal of Nuclear Medicine and Molecular Imaging</t>
+  </si>
+  <si>
+    <t>Hermelink R.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10654-022-00873-6</t>
+  </si>
+  <si>
+    <t>Sedentary behavior and cancer–an umbrella review and meta-analysis</t>
+  </si>
+  <si>
+    <t>European Journal of Epidemiology</t>
+  </si>
+  <si>
+    <t>Social, economic, political, and geographical context that counts: meta-review of implementation determinants for policies promoting healthy diet and physical activity</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1186/s12889-022-13340-4</t>
+  </si>
+  <si>
+    <t>Care partner needs of people with neurodegenerative disorders: What are the needs, and how well do the current assessment tools capture these needs? a systematic meta-review</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/gps.5764</t>
+  </si>
+  <si>
+    <t>Kinchin I.</t>
+  </si>
+  <si>
+    <t>International Journal of Geriatric Psychiatry</t>
+  </si>
+  <si>
+    <t>Efficacy and Safety of Nutrient Supplements for Glycaemic Control and Insulin Resistance in Type 2 Diabetes: An Umbrella Review and Hierarchical Evidence Synthesis</t>
+  </si>
+  <si>
+    <t>Nutrients</t>
+  </si>
+  <si>
+    <t>Fong C.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/nu14112295</t>
+  </si>
+  <si>
+    <t>Effects of Exercise in the Treatment of Alzheimer's Disease: An Umbrella Review of Systematic Reviews and Meta-Analyses</t>
+  </si>
+  <si>
+    <t>Journal of Aging &amp; Physical Activity</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1123/japa.2021-0033</t>
+  </si>
+  <si>
+    <t>Alcohol and Health Outcomes: An Umbrella Review of Meta-Analyses Base on Prospective Cohort Studies</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fpubh.2022.859947</t>
   </si>
 </sst>
 </file>
@@ -13951,7 +14116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -14050,6 +14215,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14267,13 +14435,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2290"/>
+  <dimension ref="A1:P2305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D1255" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2292" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1270" sqref="B1270"/>
+      <selection pane="bottomRight" activeCell="A2305" sqref="A2305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -14296,52 +14464,52 @@
   <sheetData>
     <row r="1" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>4317</v>
+        <v>4316</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4318</v>
+        <v>4317</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>4319</v>
+        <v>4318</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>4319</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4320</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="6" t="s">
         <v>4321</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>4322</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>4323</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>4323</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>4324</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>4325</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>4325</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>4326</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>4327</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -14658,22 +14826,22 @@
         <v>78</v>
       </c>
       <c r="E8" s="11" t="s">
+        <v>4271</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>4272</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>4273</v>
-      </c>
       <c r="G8" s="10" t="s">
+        <v>4269</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>4270</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>4271</v>
       </c>
       <c r="I8" s="19" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="19" t="s">
-        <v>4274</v>
+        <v>4273</v>
       </c>
       <c r="K8" s="20" t="s">
         <v>14</v>
@@ -14945,17 +15113,17 @@
         <v>122</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>4472</v>
+        <v>4471</v>
       </c>
       <c r="C14" s="10">
         <v>2020</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>4497</v>
+        <v>4496</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="18" t="s">
-        <v>4473</v>
+        <v>4472</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="13"/>
@@ -14970,19 +15138,19 @@
     </row>
     <row r="15" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="C15" s="10">
         <v>2021</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>4498</v>
+        <v>4497</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>4329</v>
+        <v>4328</v>
       </c>
       <c r="K15" s="31" t="s">
         <v>288</v>
@@ -15005,11 +15173,11 @@
         <v>2021</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>4496</v>
+        <v>4495</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="18" t="s">
-        <v>4495</v>
+        <v>4494</v>
       </c>
       <c r="G16" s="10"/>
       <c r="H16" s="13"/>
@@ -15129,13 +15297,13 @@
         <v>2020</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>4475</v>
+        <v>4474</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>4474</v>
+        <v>4473</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="11"/>
@@ -15159,13 +15327,13 @@
         <v>2022</v>
       </c>
       <c r="D22" s="10" t="s">
+        <v>4475</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>4271</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>4476</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>4272</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>4477</v>
       </c>
       <c r="G22" s="10"/>
       <c r="H22" s="11"/>
@@ -15189,11 +15357,11 @@
         <v>2020</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>4478</v>
+        <v>4477</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="18" t="s">
-        <v>4479</v>
+        <v>4478</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="11"/>
@@ -15217,11 +15385,11 @@
         <v>2022</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>4481</v>
+        <v>4480</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="18" t="s">
-        <v>4480</v>
+        <v>4479</v>
       </c>
       <c r="G24" s="10"/>
       <c r="H24" s="11"/>
@@ -15480,19 +15648,19 @@
     </row>
     <row r="35" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="C35" s="10">
         <v>2022</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="F35" s="28" t="s">
-        <v>4419</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -15722,7 +15890,7 @@
         <v>2022</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>4328</v>
+        <v>4327</v>
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="12" t="s">
@@ -16439,19 +16607,19 @@
     </row>
     <row r="75" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="21" t="s">
-        <v>4290</v>
+        <v>4289</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>4289</v>
+        <v>4288</v>
       </c>
       <c r="C75" s="20">
         <v>2022</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>4291</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -16506,19 +16674,19 @@
     </row>
     <row r="78" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>4542</v>
+        <v>4541</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>4540</v>
+        <v>4539</v>
       </c>
       <c r="C78" s="10">
         <v>2022</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>4541</v>
+        <v>4540</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>4543</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17143,7 +17311,7 @@
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="13" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F103" s="9"/>
       <c r="G103" s="10"/>
@@ -17159,22 +17327,22 @@
     </row>
     <row r="104" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>4352</v>
+        <v>4351</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>4350</v>
+        <v>4349</v>
       </c>
       <c r="C104" s="10">
         <v>2022</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="E104" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F104" s="28" t="s">
-        <v>4353</v>
+        <v>4352</v>
       </c>
       <c r="K104" s="31" t="s">
         <v>438</v>
@@ -17840,19 +18008,19 @@
     </row>
     <row r="132" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
-        <v>4370</v>
+        <v>4369</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>4369</v>
+        <v>4368</v>
       </c>
       <c r="C132" s="10">
         <v>2022</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>4371</v>
+        <v>4370</v>
       </c>
       <c r="F132" s="28" t="s">
-        <v>4368</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -17929,19 +18097,19 @@
     </row>
     <row r="136" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="21" t="s">
-        <v>4298</v>
+        <v>4297</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>4297</v>
+        <v>4296</v>
       </c>
       <c r="C136" s="20">
         <v>2022</v>
       </c>
       <c r="D136" s="30" t="s">
+        <v>4298</v>
+      </c>
+      <c r="F136" s="28" t="s">
         <v>4299</v>
-      </c>
-      <c r="F136" s="28" t="s">
-        <v>4300</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -18196,7 +18364,7 @@
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F147" s="9"/>
       <c r="G147" s="10"/>
@@ -18382,10 +18550,10 @@
     </row>
     <row r="155" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
-        <v>4470</v>
+        <v>4469</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>4468</v>
+        <v>4467</v>
       </c>
       <c r="C155" s="10">
         <v>2022</v>
@@ -18394,7 +18562,7 @@
         <v>100</v>
       </c>
       <c r="F155" s="28" t="s">
-        <v>4469</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -20643,7 +20811,7 @@
     </row>
     <row r="247" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
-        <v>4342</v>
+        <v>4341</v>
       </c>
       <c r="B247" s="9" t="s">
         <v>3817</v>
@@ -20869,7 +21037,7 @@
       </c>
       <c r="D256" s="10"/>
       <c r="E256" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F256" s="9"/>
       <c r="G256" s="10"/>
@@ -21585,10 +21753,10 @@
     </row>
     <row r="286" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="9" t="s">
-        <v>4530</v>
+        <v>4529</v>
       </c>
       <c r="B286" s="9" t="s">
-        <v>4529</v>
+        <v>4528</v>
       </c>
       <c r="C286" s="10">
         <v>2022</v>
@@ -21597,7 +21765,7 @@
         <v>91</v>
       </c>
       <c r="F286" s="28" t="s">
-        <v>4531</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="287" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -22154,19 +22322,19 @@
     </row>
     <row r="310" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="21" t="s">
-        <v>4316</v>
+        <v>4315</v>
       </c>
       <c r="B310" s="21" t="s">
-        <v>4314</v>
+        <v>4313</v>
       </c>
       <c r="C310" s="20">
         <v>2022</v>
       </c>
       <c r="D310" s="30" t="s">
-        <v>4313</v>
+        <v>4312</v>
       </c>
       <c r="F310" s="28" t="s">
-        <v>4315</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="311" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -23069,7 +23237,7 @@
       </c>
       <c r="D348" s="10"/>
       <c r="E348" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F348" s="9"/>
       <c r="G348" s="10"/>
@@ -23184,16 +23352,16 @@
         <v>747</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>4400</v>
+        <v>4399</v>
       </c>
       <c r="C353" s="10">
         <v>2022</v>
       </c>
       <c r="D353" s="31" t="s">
-        <v>4292</v>
+        <v>4291</v>
       </c>
       <c r="F353" s="28" t="s">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="J353" t="s">
         <v>13</v>
@@ -23937,10 +24105,10 @@
       </c>
       <c r="D384" s="10"/>
       <c r="E384" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F384" s="32" t="s">
-        <v>4332</v>
+        <v>4331</v>
       </c>
       <c r="G384" s="10"/>
       <c r="H384" s="11"/>
@@ -24029,19 +24197,19 @@
     </row>
     <row r="388" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="9" t="s">
-        <v>4334</v>
+        <v>4333</v>
       </c>
       <c r="B388" t="s">
-        <v>4333</v>
+        <v>4332</v>
       </c>
       <c r="C388" s="10">
         <v>2020</v>
       </c>
       <c r="D388" s="31" t="s">
-        <v>4336</v>
+        <v>4335</v>
       </c>
       <c r="F388" s="28" t="s">
-        <v>4335</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="389" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -25310,7 +25478,7 @@
       </c>
       <c r="D441" s="10"/>
       <c r="E441" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F441" s="9"/>
       <c r="G441" s="10"/>
@@ -26144,19 +26312,19 @@
     </row>
     <row r="476" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="21" t="s">
-        <v>4294</v>
+        <v>4293</v>
       </c>
       <c r="B476" s="21" t="s">
-        <v>4293</v>
+        <v>4292</v>
       </c>
       <c r="C476" s="20">
         <v>2022</v>
       </c>
       <c r="D476" s="30" t="s">
+        <v>4294</v>
+      </c>
+      <c r="F476" s="28" t="s">
         <v>4295</v>
-      </c>
-      <c r="F476" s="28" t="s">
-        <v>4296</v>
       </c>
     </row>
     <row r="477" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26353,19 +26521,19 @@
     </row>
     <row r="485" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="9" t="s">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="B485" s="9" t="s">
-        <v>4429</v>
+        <v>4428</v>
       </c>
       <c r="C485" s="10">
         <v>2022</v>
       </c>
       <c r="D485" s="31" t="s">
+        <v>4430</v>
+      </c>
+      <c r="F485" s="28" t="s">
         <v>4431</v>
-      </c>
-      <c r="F485" s="28" t="s">
-        <v>4432</v>
       </c>
     </row>
     <row r="486" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -26524,7 +26692,7 @@
       </c>
       <c r="D492" s="10"/>
       <c r="E492" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F492" s="9"/>
       <c r="G492" s="10"/>
@@ -29554,7 +29722,7 @@
       </c>
       <c r="D617" s="10"/>
       <c r="E617" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F617" s="9"/>
       <c r="G617" s="10"/>
@@ -30440,19 +30608,19 @@
     </row>
     <row r="654" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="9" t="s">
-        <v>4434</v>
+        <v>4433</v>
       </c>
       <c r="B654" s="9" t="s">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="C654" s="10">
         <v>2022</v>
       </c>
       <c r="D654" s="31" t="s">
-        <v>4436</v>
+        <v>4435</v>
       </c>
       <c r="F654" s="28" t="s">
-        <v>4435</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="655" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -31155,19 +31323,19 @@
     </row>
     <row r="684" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="9" t="s">
+        <v>4447</v>
+      </c>
+      <c r="B684" s="9" t="s">
         <v>4448</v>
-      </c>
-      <c r="B684" s="9" t="s">
-        <v>4449</v>
       </c>
       <c r="C684" s="10">
         <v>2022</v>
       </c>
       <c r="D684" s="31" t="s">
-        <v>4450</v>
+        <v>4449</v>
       </c>
       <c r="F684" s="28" t="s">
-        <v>4447</v>
+        <v>4446</v>
       </c>
       <c r="L684" t="s">
         <v>15</v>
@@ -31356,7 +31524,7 @@
       </c>
       <c r="D692" s="10"/>
       <c r="E692" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F692" s="9"/>
       <c r="G692" s="10"/>
@@ -31687,17 +31855,17 @@
         <v>1391</v>
       </c>
       <c r="B706" s="9" t="s">
-        <v>4520</v>
+        <v>4519</v>
       </c>
       <c r="C706" s="10">
         <v>2021</v>
       </c>
       <c r="D706" s="10" t="s">
-        <v>4521</v>
+        <v>4520</v>
       </c>
       <c r="E706" s="11"/>
       <c r="F706" s="18" t="s">
-        <v>4522</v>
+        <v>4521</v>
       </c>
       <c r="G706" s="10"/>
       <c r="H706" s="11"/>
@@ -32156,7 +32324,7 @@
       </c>
       <c r="D725" s="10"/>
       <c r="E725" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F725" s="9"/>
       <c r="G725" s="10"/>
@@ -32876,19 +33044,19 @@
     </row>
     <row r="755" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="9" t="s">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="B755" s="9" t="s">
-        <v>4354</v>
+        <v>4353</v>
       </c>
       <c r="C755" s="10">
         <v>2022</v>
       </c>
       <c r="D755" s="31" t="s">
-        <v>4351</v>
+        <v>4350</v>
       </c>
       <c r="F755" s="28" t="s">
-        <v>4356</v>
+        <v>4355</v>
       </c>
       <c r="K755" s="31" t="s">
         <v>288</v>
@@ -33986,7 +34154,7 @@
       </c>
       <c r="D801" s="10"/>
       <c r="E801" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F801" s="9"/>
       <c r="G801" s="10"/>
@@ -34276,7 +34444,7 @@
       </c>
       <c r="D813" s="10"/>
       <c r="E813" s="13" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F813" s="9"/>
       <c r="G813" s="10" t="s">
@@ -34348,19 +34516,19 @@
     </row>
     <row r="816" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="9" t="s">
-        <v>4427</v>
+        <v>4426</v>
       </c>
       <c r="B816" s="9" t="s">
-        <v>4425</v>
+        <v>4424</v>
       </c>
       <c r="C816" s="10">
         <v>2022</v>
       </c>
       <c r="D816" s="31" t="s">
-        <v>4426</v>
+        <v>4425</v>
       </c>
       <c r="F816" s="28" t="s">
-        <v>4428</v>
+        <v>4427</v>
       </c>
     </row>
     <row r="817" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -34399,7 +34567,7 @@
       </c>
       <c r="D818" s="10"/>
       <c r="E818" s="13" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F818" s="9"/>
       <c r="G818" s="10"/>
@@ -34535,10 +34703,10 @@
     </row>
     <row r="824" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="21" t="s">
+        <v>4274</v>
+      </c>
+      <c r="B824" s="29" t="s">
         <v>4275</v>
-      </c>
-      <c r="B824" s="29" t="s">
-        <v>4276</v>
       </c>
       <c r="C824" s="20">
         <v>2022</v>
@@ -34547,7 +34715,7 @@
         <v>33</v>
       </c>
       <c r="F824" s="28" t="s">
-        <v>4277</v>
+        <v>4276</v>
       </c>
       <c r="L824" s="21" t="s">
         <v>15</v>
@@ -36496,7 +36664,7 @@
       </c>
       <c r="D905" s="10"/>
       <c r="E905" s="13" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F905" s="9"/>
       <c r="G905" s="10"/>
@@ -36536,19 +36704,19 @@
     </row>
     <row r="907" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="9" t="s">
+        <v>4441</v>
+      </c>
+      <c r="B907" s="9" t="s">
         <v>4442</v>
-      </c>
-      <c r="B907" s="9" t="s">
-        <v>4443</v>
       </c>
       <c r="C907" s="10">
         <v>2022</v>
       </c>
       <c r="D907" s="31" t="s">
-        <v>4441</v>
+        <v>4440</v>
       </c>
       <c r="F907" s="28" t="s">
-        <v>4440</v>
+        <v>4439</v>
       </c>
     </row>
     <row r="908" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -37743,7 +37911,7 @@
       </c>
       <c r="D957" s="10"/>
       <c r="E957" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F957" s="9"/>
       <c r="G957" s="10"/>
@@ -38074,7 +38242,7 @@
         <v>1876</v>
       </c>
       <c r="B971" s="9" t="s">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="C971" s="10">
         <v>2022</v>
@@ -38419,7 +38587,7 @@
       </c>
       <c r="D985" s="10"/>
       <c r="E985" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F985" s="9"/>
       <c r="G985" s="10"/>
@@ -39117,7 +39285,7 @@
       </c>
       <c r="D1014" s="10"/>
       <c r="E1014" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1014" s="9"/>
       <c r="G1014" s="10"/>
@@ -39431,7 +39599,7 @@
       </c>
       <c r="D1027" s="10"/>
       <c r="E1027" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1027" s="9"/>
       <c r="G1027" s="10"/>
@@ -39543,19 +39711,19 @@
     </row>
     <row r="1032" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1032" s="9" t="s">
+        <v>4531</v>
+      </c>
+      <c r="B1032" s="9" t="s">
         <v>4532</v>
-      </c>
-      <c r="B1032" s="9" t="s">
-        <v>4533</v>
       </c>
       <c r="C1032" s="10">
         <v>2022</v>
       </c>
       <c r="D1032" s="31" t="s">
+        <v>4533</v>
+      </c>
+      <c r="F1032" s="28" t="s">
         <v>4534</v>
-      </c>
-      <c r="F1032" s="28" t="s">
-        <v>4535</v>
       </c>
     </row>
     <row r="1033" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -39618,7 +39786,7 @@
       </c>
       <c r="D1035" s="10"/>
       <c r="E1035" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1035" s="9"/>
       <c r="G1035" s="10"/>
@@ -40028,7 +40196,7 @@
       </c>
       <c r="D1052" s="10"/>
       <c r="E1052" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F1052" s="9"/>
       <c r="G1052" s="10"/>
@@ -41236,7 +41404,7 @@
       </c>
       <c r="D1102" s="10"/>
       <c r="E1102" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1102" s="9"/>
       <c r="G1102" s="10"/>
@@ -41696,7 +41864,7 @@
       </c>
       <c r="D1121" s="10"/>
       <c r="E1121" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1121" s="9"/>
       <c r="G1121" s="10"/>
@@ -41856,19 +42024,19 @@
     </row>
     <row r="1128" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1128" s="9" t="s">
-        <v>4381</v>
+        <v>4380</v>
       </c>
       <c r="B1128" s="9" t="s">
-        <v>4380</v>
+        <v>4379</v>
       </c>
       <c r="C1128" s="10">
         <v>2022</v>
       </c>
       <c r="D1128" s="31" t="s">
-        <v>4383</v>
+        <v>4382</v>
       </c>
       <c r="F1128" s="28" t="s">
-        <v>4382</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="1129" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -43636,16 +43804,16 @@
         <v>2289</v>
       </c>
       <c r="B1202" s="9" t="s">
-        <v>4437</v>
+        <v>4436</v>
       </c>
       <c r="C1202" s="10">
         <v>2022</v>
       </c>
       <c r="D1202" s="31" t="s">
-        <v>4439</v>
+        <v>4438</v>
       </c>
       <c r="F1202" s="28" t="s">
-        <v>4438</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="1203" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -45240,19 +45408,19 @@
     </row>
     <row r="1269" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1269" s="9" t="s">
-        <v>4539</v>
+        <v>4538</v>
       </c>
       <c r="B1269" s="9" t="s">
-        <v>4536</v>
+        <v>4535</v>
       </c>
       <c r="C1269" s="10">
         <v>2022</v>
       </c>
       <c r="D1269" s="31" t="s">
+        <v>4536</v>
+      </c>
+      <c r="F1269" s="28" t="s">
         <v>4537</v>
-      </c>
-      <c r="F1269" s="28" t="s">
-        <v>4538</v>
       </c>
       <c r="K1269" s="31" t="s">
         <v>288</v>
@@ -45260,28 +45428,28 @@
     </row>
     <row r="1270" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1270" s="9" t="s">
-        <v>4344</v>
+        <v>4343</v>
       </c>
       <c r="B1270" s="9" t="s">
-        <v>4343</v>
+        <v>4342</v>
       </c>
       <c r="C1270" s="10">
         <v>2022</v>
       </c>
       <c r="D1270" s="31" t="s">
+        <v>4344</v>
+      </c>
+      <c r="F1270" s="28" t="s">
         <v>4345</v>
       </c>
-      <c r="F1270" s="28" t="s">
+      <c r="G1270" t="s">
         <v>4346</v>
       </c>
-      <c r="G1270" t="s">
+      <c r="H1270" t="s">
         <v>4347</v>
       </c>
-      <c r="H1270" t="s">
+      <c r="I1270" t="s">
         <v>4348</v>
-      </c>
-      <c r="I1270" t="s">
-        <v>4349</v>
       </c>
       <c r="J1270" s="31" t="s">
         <v>13</v>
@@ -45768,7 +45936,7 @@
       </c>
       <c r="D1290" s="10"/>
       <c r="E1290" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F1290" s="9"/>
       <c r="G1290" s="10"/>
@@ -46350,7 +46518,7 @@
       </c>
       <c r="D1314" s="10"/>
       <c r="E1314" s="13" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F1314" s="9"/>
       <c r="G1314" s="10"/>
@@ -46606,19 +46774,19 @@
     </row>
     <row r="1325" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1325" s="9" t="s">
-        <v>4372</v>
+        <v>4371</v>
       </c>
       <c r="B1325" s="9" t="s">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="C1325" s="10">
         <v>2022</v>
       </c>
       <c r="D1325" s="31" t="s">
-        <v>4373</v>
+        <v>4372</v>
       </c>
       <c r="F1325" s="28" t="s">
-        <v>4375</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="1326" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -47067,7 +47235,7 @@
       </c>
       <c r="D1344" s="10"/>
       <c r="E1344" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F1344" s="9"/>
       <c r="G1344" s="10"/>
@@ -48329,7 +48497,7 @@
       </c>
       <c r="D1396" s="10"/>
       <c r="E1396" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F1396" s="9"/>
       <c r="G1396" s="10"/>
@@ -49653,7 +49821,7 @@
       </c>
       <c r="D1451" s="10"/>
       <c r="E1451" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1451" s="9"/>
       <c r="G1451" s="10"/>
@@ -50823,19 +50991,19 @@
     </row>
     <row r="1500" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1500" s="21" t="s">
-        <v>4312</v>
+        <v>4311</v>
       </c>
       <c r="B1500" s="21" t="s">
-        <v>4309</v>
+        <v>4308</v>
       </c>
       <c r="C1500" s="20">
         <v>2022</v>
       </c>
       <c r="D1500" s="30" t="s">
+        <v>4309</v>
+      </c>
+      <c r="F1500" s="28" t="s">
         <v>4310</v>
-      </c>
-      <c r="F1500" s="28" t="s">
-        <v>4311</v>
       </c>
       <c r="J1500" s="30" t="s">
         <v>4174</v>
@@ -51179,19 +51347,19 @@
     </row>
     <row r="1515" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1515" s="9" t="s">
-        <v>4393</v>
+        <v>4392</v>
       </c>
       <c r="B1515" s="9" t="s">
-        <v>4392</v>
+        <v>4391</v>
       </c>
       <c r="C1515" s="10">
         <v>2022</v>
       </c>
       <c r="D1515" s="31" t="s">
+        <v>4393</v>
+      </c>
+      <c r="F1515" s="28" t="s">
         <v>4394</v>
-      </c>
-      <c r="F1515" s="28" t="s">
-        <v>4395</v>
       </c>
       <c r="J1515" t="s">
         <v>4174</v>
@@ -51596,7 +51764,7 @@
       </c>
       <c r="D1532" s="10"/>
       <c r="E1532" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1532" s="9"/>
       <c r="G1532" s="10"/>
@@ -51687,7 +51855,7 @@
         <v>2909</v>
       </c>
       <c r="B1536" s="9" t="s">
-        <v>4366</v>
+        <v>4365</v>
       </c>
       <c r="C1536" s="10">
         <v>2021</v>
@@ -51695,7 +51863,7 @@
       <c r="D1536" s="10"/>
       <c r="E1536" s="11"/>
       <c r="F1536" s="18" t="s">
-        <v>4367</v>
+        <v>4366</v>
       </c>
       <c r="G1536" s="10"/>
       <c r="H1536" s="11"/>
@@ -52312,19 +52480,19 @@
     </row>
     <row r="1562" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1562" s="9" t="s">
-        <v>4378</v>
+        <v>4377</v>
       </c>
       <c r="B1562" s="9" t="s">
-        <v>4377</v>
+        <v>4376</v>
       </c>
       <c r="C1562" s="10">
         <v>2022</v>
       </c>
       <c r="D1562" s="31" t="s">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="F1562" s="28" t="s">
-        <v>4376</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="1563" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -52677,7 +52845,7 @@
       </c>
       <c r="D1577" s="10"/>
       <c r="E1577" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1577" s="9"/>
       <c r="G1577" s="10"/>
@@ -52775,7 +52943,7 @@
       </c>
       <c r="D1581" s="10"/>
       <c r="E1581" s="13" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F1581" s="9"/>
       <c r="G1581" s="10"/>
@@ -52887,19 +53055,19 @@
     </row>
     <row r="1586" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1586" s="9" t="s">
-        <v>4385</v>
+        <v>4384</v>
       </c>
       <c r="B1586" s="9" t="s">
-        <v>4384</v>
+        <v>4383</v>
       </c>
       <c r="C1586" s="10">
         <v>2022</v>
       </c>
       <c r="D1586" s="31" t="s">
+        <v>4385</v>
+      </c>
+      <c r="F1586" s="28" t="s">
         <v>4386</v>
-      </c>
-      <c r="F1586" s="28" t="s">
-        <v>4387</v>
       </c>
     </row>
     <row r="1587" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -53342,19 +53510,19 @@
     </row>
     <row r="1605" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1605" s="9" t="s">
-        <v>4404</v>
+        <v>4403</v>
       </c>
       <c r="B1605" s="9" t="s">
-        <v>4402</v>
+        <v>4401</v>
       </c>
       <c r="C1605" s="10">
         <v>2022</v>
       </c>
       <c r="D1605" s="31" t="s">
-        <v>4403</v>
+        <v>4402</v>
       </c>
       <c r="F1605" s="28" t="s">
-        <v>4405</v>
+        <v>4404</v>
       </c>
     </row>
     <row r="1606" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -54187,7 +54355,7 @@
       </c>
       <c r="D1640" s="10"/>
       <c r="E1640" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1640" s="9"/>
       <c r="G1640" s="10"/>
@@ -54982,16 +55150,16 @@
         <v>3151</v>
       </c>
       <c r="B1673" s="9" t="s">
-        <v>4363</v>
+        <v>4362</v>
       </c>
       <c r="C1673" s="10">
         <v>2022</v>
       </c>
       <c r="D1673" s="31" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="F1673" s="28" t="s">
-        <v>4365</v>
+        <v>4364</v>
       </c>
       <c r="K1673" s="31" t="s">
         <v>288</v>
@@ -55002,16 +55170,16 @@
         <v>3151</v>
       </c>
       <c r="B1674" s="9" t="s">
-        <v>4362</v>
+        <v>4361</v>
       </c>
       <c r="C1674" s="10">
         <v>2022</v>
       </c>
       <c r="D1674" s="31" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="F1674" s="28" t="s">
-        <v>4364</v>
+        <v>4363</v>
       </c>
       <c r="K1674" s="31" t="s">
         <v>288</v>
@@ -55389,19 +55557,19 @@
     </row>
     <row r="1690" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1690" s="9" t="s">
-        <v>4544</v>
+        <v>4543</v>
       </c>
       <c r="B1690" s="9" t="s">
-        <v>4546</v>
+        <v>4545</v>
       </c>
       <c r="C1690" s="10">
         <v>2022</v>
       </c>
       <c r="D1690" s="31" t="s">
-        <v>4547</v>
+        <v>4546</v>
       </c>
       <c r="F1690" s="28" t="s">
-        <v>4545</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="1691" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -55656,7 +55824,7 @@
       </c>
       <c r="D1701" s="10"/>
       <c r="E1701" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1701" s="9"/>
       <c r="G1701" s="10"/>
@@ -56416,19 +56584,19 @@
     </row>
     <row r="1733" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1733" s="21" t="s">
+        <v>4284</v>
+      </c>
+      <c r="B1733" s="21" t="s">
         <v>4285</v>
-      </c>
-      <c r="B1733" s="21" t="s">
-        <v>4286</v>
       </c>
       <c r="C1733" s="20">
         <v>2022</v>
       </c>
       <c r="D1733" s="30" t="s">
-        <v>4288</v>
+        <v>4287</v>
       </c>
       <c r="F1733" s="28" t="s">
-        <v>4287</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1734" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -57107,10 +57275,10 @@
     </row>
     <row r="1762" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1762" s="9" t="s">
-        <v>4411</v>
+        <v>4410</v>
       </c>
       <c r="B1762" s="9" t="s">
-        <v>4410</v>
+        <v>4409</v>
       </c>
       <c r="C1762" s="10">
         <v>2022</v>
@@ -57119,7 +57287,7 @@
         <v>32</v>
       </c>
       <c r="F1762" s="28" t="s">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="K1762" s="31" t="s">
         <v>288</v>
@@ -57514,7 +57682,7 @@
         <v>3348</v>
       </c>
       <c r="B1779" s="9" t="s">
-        <v>4491</v>
+        <v>4490</v>
       </c>
       <c r="C1779" s="10">
         <v>2021</v>
@@ -57761,7 +57929,7 @@
       </c>
       <c r="D1789" s="10"/>
       <c r="E1789" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F1789" s="9"/>
       <c r="G1789" s="10"/>
@@ -57825,19 +57993,19 @@
     </row>
     <row r="1792" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1792" s="9" t="s">
-        <v>4424</v>
+        <v>4423</v>
       </c>
       <c r="B1792" s="9" t="s">
-        <v>4422</v>
+        <v>4421</v>
       </c>
       <c r="C1792" s="10">
         <v>2022</v>
       </c>
       <c r="D1792" s="31" t="s">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="F1792" s="28" t="s">
-        <v>4423</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="1793" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -58276,19 +58444,19 @@
     </row>
     <row r="1811" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1811" s="9" t="s">
-        <v>4527</v>
+        <v>4526</v>
       </c>
       <c r="B1811" s="9" t="s">
-        <v>4525</v>
+        <v>4524</v>
       </c>
       <c r="C1811" s="10">
         <v>2022</v>
       </c>
       <c r="D1811" s="31" t="s">
-        <v>4528</v>
+        <v>4527</v>
       </c>
       <c r="F1811" s="28" t="s">
-        <v>4526</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="1812" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -58635,19 +58803,19 @@
     </row>
     <row r="1826" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1826" s="9" t="s">
-        <v>4488</v>
+        <v>4487</v>
       </c>
       <c r="B1826" s="9" t="s">
-        <v>4486</v>
+        <v>4485</v>
       </c>
       <c r="C1826" s="10">
         <v>2022</v>
       </c>
       <c r="D1826" s="31" t="s">
-        <v>4489</v>
+        <v>4488</v>
       </c>
       <c r="F1826" s="28" t="s">
-        <v>4487</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="1827" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -58734,7 +58902,7 @@
       </c>
       <c r="D1830" s="10"/>
       <c r="E1830" s="13" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F1830" s="9"/>
       <c r="G1830" s="10"/>
@@ -58894,19 +59062,19 @@
     </row>
     <row r="1837" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1837" s="9" t="s">
-        <v>4397</v>
+        <v>4396</v>
       </c>
       <c r="B1837" s="9" t="s">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="C1837" s="10">
         <v>2022</v>
       </c>
       <c r="D1837" s="31" t="s">
+        <v>4397</v>
+      </c>
+      <c r="F1837" s="28" t="s">
         <v>4398</v>
-      </c>
-      <c r="F1837" s="28" t="s">
-        <v>4399</v>
       </c>
       <c r="K1837" s="31" t="s">
         <v>438</v>
@@ -59205,16 +59373,16 @@
         <v>3474</v>
       </c>
       <c r="B1850" t="s">
-        <v>4282</v>
+        <v>4281</v>
       </c>
       <c r="C1850" s="20">
         <v>2022</v>
       </c>
       <c r="D1850" s="30" t="s">
+        <v>4282</v>
+      </c>
+      <c r="F1850" s="28" t="s">
         <v>4283</v>
-      </c>
-      <c r="F1850" s="28" t="s">
-        <v>4284</v>
       </c>
     </row>
     <row r="1851" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -59222,16 +59390,16 @@
         <v>3474</v>
       </c>
       <c r="B1851" s="9" t="s">
-        <v>4444</v>
+        <v>4443</v>
       </c>
       <c r="C1851" s="10">
         <v>2022</v>
       </c>
       <c r="D1851" s="31" t="s">
-        <v>4446</v>
+        <v>4445</v>
       </c>
       <c r="F1851" s="28" t="s">
-        <v>4445</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="1852" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -59284,19 +59452,19 @@
     </row>
     <row r="1854" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1854" s="9" t="s">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="B1854" s="9" t="s">
-        <v>4388</v>
+        <v>4387</v>
       </c>
       <c r="C1854" s="10">
         <v>2022</v>
       </c>
       <c r="D1854" s="31" t="s">
+        <v>4389</v>
+      </c>
+      <c r="F1854" s="28" t="s">
         <v>4390</v>
-      </c>
-      <c r="F1854" s="28" t="s">
-        <v>4391</v>
       </c>
       <c r="K1854" s="31" t="s">
         <v>288</v>
@@ -59378,19 +59546,19 @@
     </row>
     <row r="1858" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1858" s="21" t="s">
-        <v>4279</v>
+        <v>4278</v>
       </c>
       <c r="B1858" s="29" t="s">
-        <v>4278</v>
+        <v>4277</v>
       </c>
       <c r="C1858" s="20">
         <v>2022</v>
       </c>
       <c r="D1858" s="30" t="s">
-        <v>4281</v>
+        <v>4280</v>
       </c>
       <c r="F1858" s="28" t="s">
-        <v>4280</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1859" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -59501,7 +59669,7 @@
       </c>
       <c r="D1863" s="10"/>
       <c r="E1863" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1863" s="9"/>
       <c r="G1863" s="10"/>
@@ -59721,7 +59889,7 @@
       </c>
       <c r="D1872" s="10"/>
       <c r="E1872" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1872" s="9"/>
       <c r="G1872" s="10"/>
@@ -60451,7 +60619,7 @@
       </c>
       <c r="D1902" s="10"/>
       <c r="E1902" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1902" s="9"/>
       <c r="G1902" s="10"/>
@@ -60669,7 +60837,7 @@
       </c>
       <c r="D1911" s="10"/>
       <c r="E1911" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F1911" s="9"/>
       <c r="G1911" s="10"/>
@@ -61273,7 +61441,7 @@
       </c>
       <c r="D1936" s="10"/>
       <c r="E1936" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1936" s="9"/>
       <c r="G1936" s="10"/>
@@ -61923,7 +62091,7 @@
       </c>
       <c r="D1963" s="10"/>
       <c r="E1963" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1963" s="9"/>
       <c r="G1963" s="10"/>
@@ -62237,7 +62405,7 @@
       </c>
       <c r="D1976" s="10"/>
       <c r="E1976" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F1976" s="9"/>
       <c r="G1976" s="10"/>
@@ -62325,19 +62493,19 @@
     </row>
     <row r="1980" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1980" s="21" t="s">
-        <v>4308</v>
+        <v>4307</v>
       </c>
       <c r="B1980" s="21" t="s">
-        <v>4305</v>
+        <v>4304</v>
       </c>
       <c r="C1980" s="20">
         <v>2022</v>
       </c>
       <c r="D1980" s="30" t="s">
+        <v>4305</v>
+      </c>
+      <c r="F1980" s="28" t="s">
         <v>4306</v>
-      </c>
-      <c r="F1980" s="28" t="s">
-        <v>4307</v>
       </c>
     </row>
     <row r="1981" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -62424,7 +62592,7 @@
       </c>
       <c r="D1984" s="10"/>
       <c r="E1984" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F1984" s="9"/>
       <c r="G1984" s="10"/>
@@ -62834,7 +63002,7 @@
       </c>
       <c r="D2001" s="10"/>
       <c r="E2001" s="13" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F2001" s="9"/>
       <c r="G2001" s="10"/>
@@ -62860,7 +63028,7 @@
       </c>
       <c r="D2002" s="10"/>
       <c r="E2002" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F2002" s="9"/>
       <c r="G2002" s="10"/>
@@ -63194,22 +63362,22 @@
     </row>
     <row r="2016" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2016" s="21" t="s">
-        <v>4304</v>
+        <v>4303</v>
       </c>
       <c r="B2016" s="21" t="s">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="C2016" s="20">
         <v>2022</v>
       </c>
       <c r="D2016" s="30" t="s">
-        <v>4303</v>
+        <v>4302</v>
       </c>
       <c r="E2016" t="s">
         <v>46</v>
       </c>
       <c r="F2016" s="28" t="s">
-        <v>4302</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="2017" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -63385,7 +63553,7 @@
         <v>3789</v>
       </c>
       <c r="B2024" s="9" t="s">
-        <v>4492</v>
+        <v>4491</v>
       </c>
       <c r="C2024" s="10">
         <v>2021</v>
@@ -64156,22 +64324,22 @@
     </row>
     <row r="2056" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2056" s="9" t="s">
-        <v>4465</v>
+        <v>4464</v>
       </c>
       <c r="B2056" t="s">
-        <v>4463</v>
+        <v>4462</v>
       </c>
       <c r="C2056" s="10">
         <v>2022</v>
       </c>
       <c r="D2056" s="31" t="s">
-        <v>4464</v>
+        <v>4463</v>
       </c>
       <c r="F2056" s="28" t="s">
+        <v>4465</v>
+      </c>
+      <c r="J2056" s="31" t="s">
         <v>4466</v>
-      </c>
-      <c r="J2056" s="31" t="s">
-        <v>4467</v>
       </c>
     </row>
     <row r="2057" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -64356,7 +64524,7 @@
       </c>
       <c r="D2064" s="10"/>
       <c r="E2064" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F2064" s="9"/>
       <c r="G2064" s="10"/>
@@ -64807,13 +64975,13 @@
         <v>3887</v>
       </c>
       <c r="B2083" s="9" t="s">
-        <v>4420</v>
+        <v>4419</v>
       </c>
       <c r="C2083" s="10">
         <v>2022</v>
       </c>
       <c r="F2083" s="28" t="s">
-        <v>4421</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="2084" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -65108,19 +65276,19 @@
     </row>
     <row r="2096" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2096" s="9" t="s">
-        <v>4359</v>
+        <v>4358</v>
       </c>
       <c r="B2096" s="9" t="s">
-        <v>4358</v>
+        <v>4357</v>
       </c>
       <c r="C2096" s="10">
         <v>2022</v>
       </c>
       <c r="D2096" s="31" t="s">
-        <v>4361</v>
+        <v>4360</v>
       </c>
       <c r="F2096" s="28" t="s">
-        <v>4360</v>
+        <v>4359</v>
       </c>
       <c r="K2096" s="31" t="s">
         <v>288</v>
@@ -65298,19 +65466,19 @@
     </row>
     <row r="2104" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2104" s="9" t="s">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="B2104" s="9" t="s">
-        <v>4414</v>
+        <v>4413</v>
       </c>
       <c r="C2104" s="10">
         <v>2022</v>
       </c>
       <c r="D2104" s="31" t="s">
-        <v>4416</v>
+        <v>4415</v>
       </c>
       <c r="F2104" s="28" t="s">
-        <v>4413</v>
+        <v>4412</v>
       </c>
       <c r="K2104" s="31" t="s">
         <v>438</v>
@@ -65808,7 +65976,7 @@
       </c>
       <c r="D2125" s="10"/>
       <c r="E2125" s="11" t="s">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="F2125" s="9"/>
       <c r="G2125" s="10"/>
@@ -66122,7 +66290,7 @@
       </c>
       <c r="D2138" s="10"/>
       <c r="E2138" s="11" t="s">
-        <v>4272</v>
+        <v>4271</v>
       </c>
       <c r="F2138" s="9"/>
       <c r="G2138" s="10"/>
@@ -66172,7 +66340,7 @@
       </c>
       <c r="D2140" s="10"/>
       <c r="E2140" s="11" t="s">
-        <v>4524</v>
+        <v>4523</v>
       </c>
       <c r="F2140" s="9"/>
       <c r="G2140" s="10"/>
@@ -67429,7 +67597,7 @@
         <v>4095</v>
       </c>
       <c r="B2192" s="9" t="s">
-        <v>4471</v>
+        <v>4470</v>
       </c>
       <c r="C2192" s="10">
         <v>2021</v>
@@ -67985,7 +68153,7 @@
         <v>4134</v>
       </c>
       <c r="B2215" s="9" t="s">
-        <v>4357</v>
+        <v>4356</v>
       </c>
       <c r="C2215" s="10">
         <v>2022</v>
@@ -68512,19 +68680,19 @@
     </row>
     <row r="2237" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2237" s="9" t="s">
-        <v>4409</v>
+        <v>4408</v>
       </c>
       <c r="B2237" s="9" t="s">
-        <v>4406</v>
+        <v>4405</v>
       </c>
       <c r="C2237" s="10">
         <v>2022</v>
       </c>
       <c r="D2237" s="31" t="s">
+        <v>4406</v>
+      </c>
+      <c r="F2237" s="28" t="s">
         <v>4407</v>
-      </c>
-      <c r="F2237" s="28" t="s">
-        <v>4408</v>
       </c>
       <c r="K2237" s="31" t="s">
         <v>288</v>
@@ -68801,22 +68969,22 @@
         <v>4200</v>
       </c>
       <c r="B2249" s="9" t="s">
-        <v>4337</v>
+        <v>4336</v>
       </c>
       <c r="C2249" s="10">
         <v>2022</v>
       </c>
       <c r="D2249" s="31" t="s">
+        <v>4337</v>
+      </c>
+      <c r="F2249" s="28" t="s">
         <v>4338</v>
-      </c>
-      <c r="F2249" s="28" t="s">
-        <v>4339</v>
       </c>
       <c r="G2249" t="s">
         <v>23</v>
       </c>
       <c r="H2249" t="s">
-        <v>4340</v>
+        <v>4339</v>
       </c>
       <c r="I2249" t="s">
         <v>102</v>
@@ -68825,7 +68993,7 @@
         <v>288</v>
       </c>
       <c r="L2249" t="s">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="M2249">
         <v>12</v>
@@ -69347,9 +69515,13 @@
       <c r="C2271" s="10">
         <v>2012</v>
       </c>
-      <c r="D2271" s="10"/>
+      <c r="D2271" s="10" t="s">
+        <v>4558</v>
+      </c>
       <c r="E2271" s="13"/>
-      <c r="F2271" s="9"/>
+      <c r="F2271" s="18" t="s">
+        <v>4557</v>
+      </c>
       <c r="G2271" s="10"/>
       <c r="H2271" s="13"/>
       <c r="I2271" s="13"/>
@@ -69371,9 +69543,13 @@
       <c r="C2272" s="10">
         <v>2020</v>
       </c>
-      <c r="D2272" s="10"/>
+      <c r="D2272" s="10" t="s">
+        <v>4556</v>
+      </c>
       <c r="E2272" s="13"/>
-      <c r="F2272" s="9"/>
+      <c r="F2272" s="18" t="s">
+        <v>4555</v>
+      </c>
       <c r="G2272" s="10"/>
       <c r="H2272" s="13"/>
       <c r="I2272" s="13"/>
@@ -69398,11 +69574,11 @@
         <v>2018</v>
       </c>
       <c r="D2273" s="10" t="s">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="E2273" s="13"/>
       <c r="F2273" s="18" t="s">
-        <v>4518</v>
+        <v>4517</v>
       </c>
       <c r="G2273" s="10"/>
       <c r="H2273" s="13"/>
@@ -69426,11 +69602,11 @@
         <v>2020</v>
       </c>
       <c r="D2274" s="10" t="s">
-        <v>4517</v>
+        <v>4516</v>
       </c>
       <c r="E2274" s="13"/>
       <c r="F2274" s="18" t="s">
-        <v>4516</v>
+        <v>4515</v>
       </c>
       <c r="G2274" s="10"/>
       <c r="H2274" s="13"/>
@@ -69445,20 +69621,20 @@
     </row>
     <row r="2275" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2275" s="9" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B2275" s="9" t="s">
         <v>4242</v>
-      </c>
-      <c r="B2275" s="9" t="s">
-        <v>4243</v>
       </c>
       <c r="C2275" s="10">
         <v>2021</v>
       </c>
       <c r="D2275" s="10" t="s">
-        <v>4500</v>
+        <v>4499</v>
       </c>
       <c r="E2275" s="13"/>
       <c r="F2275" s="18" t="s">
-        <v>4499</v>
+        <v>4498</v>
       </c>
       <c r="G2275" s="10"/>
       <c r="H2275" s="13"/>
@@ -69473,20 +69649,20 @@
     </row>
     <row r="2276" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2276" s="9" t="s">
+        <v>4243</v>
+      </c>
+      <c r="B2276" s="9" t="s">
         <v>4244</v>
-      </c>
-      <c r="B2276" s="9" t="s">
-        <v>4245</v>
       </c>
       <c r="C2276" s="10">
         <v>2020</v>
       </c>
       <c r="D2276" s="10" t="s">
-        <v>4501</v>
+        <v>4500</v>
       </c>
       <c r="E2276" s="13"/>
       <c r="F2276" s="18" t="s">
-        <v>4502</v>
+        <v>4501</v>
       </c>
       <c r="G2276" s="10"/>
       <c r="H2276" s="13"/>
@@ -69501,37 +69677,37 @@
     </row>
     <row r="2277" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2277" s="9" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B2277" s="9" t="s">
         <v>4482</v>
-      </c>
-      <c r="B2277" s="9" t="s">
-        <v>4483</v>
       </c>
       <c r="C2277" s="10">
         <v>2022</v>
       </c>
       <c r="D2277" s="31" t="s">
-        <v>4485</v>
+        <v>4484</v>
       </c>
       <c r="F2277" s="28" t="s">
-        <v>4484</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="2278" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2278" s="9" t="s">
+        <v>4245</v>
+      </c>
+      <c r="B2278" s="9" t="s">
         <v>4246</v>
-      </c>
-      <c r="B2278" s="9" t="s">
-        <v>4247</v>
       </c>
       <c r="C2278" s="10">
         <v>2019</v>
       </c>
       <c r="D2278" s="10" t="s">
-        <v>4503</v>
+        <v>4502</v>
       </c>
       <c r="E2278" s="13"/>
       <c r="F2278" s="18" t="s">
-        <v>4504</v>
+        <v>4503</v>
       </c>
       <c r="G2278" s="10"/>
       <c r="H2278" s="13"/>
@@ -69546,20 +69722,20 @@
     </row>
     <row r="2279" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2279" s="9" t="s">
+        <v>4247</v>
+      </c>
+      <c r="B2279" s="9" t="s">
         <v>4248</v>
-      </c>
-      <c r="B2279" s="9" t="s">
-        <v>4249</v>
       </c>
       <c r="C2279" s="10">
         <v>2020</v>
       </c>
       <c r="D2279" s="10" t="s">
-        <v>4506</v>
+        <v>4505</v>
       </c>
       <c r="E2279" s="13"/>
       <c r="F2279" s="18" t="s">
-        <v>4505</v>
+        <v>4504</v>
       </c>
       <c r="G2279" s="10"/>
       <c r="H2279" s="13"/>
@@ -69574,20 +69750,20 @@
     </row>
     <row r="2280" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2280" s="9" t="s">
+        <v>4249</v>
+      </c>
+      <c r="B2280" s="9" t="s">
         <v>4250</v>
-      </c>
-      <c r="B2280" s="9" t="s">
-        <v>4251</v>
       </c>
       <c r="C2280" s="10">
         <v>2020</v>
       </c>
       <c r="D2280" s="10" t="s">
-        <v>4508</v>
+        <v>4507</v>
       </c>
       <c r="E2280" s="13"/>
       <c r="F2280" s="18" t="s">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="G2280" s="10"/>
       <c r="H2280" s="13"/>
@@ -69602,22 +69778,22 @@
     </row>
     <row r="2281" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2281" s="9" t="s">
+        <v>4251</v>
+      </c>
+      <c r="B2281" s="9" t="s">
         <v>4252</v>
-      </c>
-      <c r="B2281" s="9" t="s">
-        <v>4253</v>
       </c>
       <c r="C2281" s="10">
         <v>2021</v>
       </c>
       <c r="D2281" s="10" t="s">
+        <v>4508</v>
+      </c>
+      <c r="E2281" s="13" t="s">
+        <v>4522</v>
+      </c>
+      <c r="F2281" s="18" t="s">
         <v>4509</v>
-      </c>
-      <c r="E2281" s="13" t="s">
-        <v>4523</v>
-      </c>
-      <c r="F2281" s="18" t="s">
-        <v>4510</v>
       </c>
       <c r="G2281" s="10"/>
       <c r="H2281" s="13"/>
@@ -69632,20 +69808,20 @@
     </row>
     <row r="2282" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2282" s="9" t="s">
+        <v>4253</v>
+      </c>
+      <c r="B2282" s="9" t="s">
         <v>4254</v>
-      </c>
-      <c r="B2282" s="9" t="s">
-        <v>4255</v>
       </c>
       <c r="C2282" s="10">
         <v>2020</v>
       </c>
       <c r="D2282" s="10" t="s">
-        <v>4512</v>
+        <v>4511</v>
       </c>
       <c r="E2282" s="13"/>
       <c r="F2282" s="18" t="s">
-        <v>4511</v>
+        <v>4510</v>
       </c>
       <c r="G2282" s="10"/>
       <c r="H2282" s="13"/>
@@ -69660,20 +69836,20 @@
     </row>
     <row r="2283" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2283" s="9" t="s">
-        <v>4256</v>
+        <v>4255</v>
       </c>
       <c r="B2283" s="9" t="s">
-        <v>4513</v>
+        <v>4512</v>
       </c>
       <c r="C2283" s="10">
         <v>2020</v>
       </c>
       <c r="D2283" s="10" t="s">
-        <v>4514</v>
+        <v>4513</v>
       </c>
       <c r="E2283" s="13"/>
       <c r="F2283" s="18" t="s">
-        <v>4515</v>
+        <v>4514</v>
       </c>
       <c r="G2283" s="10"/>
       <c r="H2283" s="13"/>
@@ -69688,20 +69864,20 @@
     </row>
     <row r="2284" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2284" s="9" t="s">
+        <v>4256</v>
+      </c>
+      <c r="B2284" s="9" t="s">
         <v>4257</v>
-      </c>
-      <c r="B2284" s="9" t="s">
-        <v>4258</v>
       </c>
       <c r="C2284" s="10">
         <v>2019</v>
       </c>
       <c r="D2284" s="10" t="s">
-        <v>4494</v>
+        <v>4493</v>
       </c>
       <c r="E2284" s="13"/>
       <c r="F2284" s="18" t="s">
-        <v>4493</v>
+        <v>4492</v>
       </c>
       <c r="G2284" s="10"/>
       <c r="H2284" s="13"/>
@@ -69716,20 +69892,20 @@
     </row>
     <row r="2285" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2285" s="9" t="s">
+        <v>4258</v>
+      </c>
+      <c r="B2285" s="9" t="s">
         <v>4259</v>
-      </c>
-      <c r="B2285" s="9" t="s">
-        <v>4260</v>
       </c>
       <c r="C2285" s="10">
         <v>2020</v>
       </c>
       <c r="D2285" s="10" t="s">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="E2285" s="13"/>
       <c r="F2285" s="18" t="s">
-        <v>4460</v>
+        <v>4459</v>
       </c>
       <c r="G2285" s="10"/>
       <c r="H2285" s="13"/>
@@ -69744,10 +69920,10 @@
     </row>
     <row r="2286" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2286" s="9" t="s">
+        <v>4260</v>
+      </c>
+      <c r="B2286" s="9" t="s">
         <v>4261</v>
-      </c>
-      <c r="B2286" s="9" t="s">
-        <v>4262</v>
       </c>
       <c r="C2286" s="10">
         <v>2009</v>
@@ -69755,7 +69931,7 @@
       <c r="D2286" s="10"/>
       <c r="E2286" s="13"/>
       <c r="F2286" s="18" t="s">
-        <v>4462</v>
+        <v>4461</v>
       </c>
       <c r="G2286" s="10"/>
       <c r="H2286" s="13"/>
@@ -69770,20 +69946,20 @@
     </row>
     <row r="2287" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2287" s="9" t="s">
-        <v>4263</v>
+        <v>4262</v>
       </c>
       <c r="B2287" s="9" t="s">
-        <v>4457</v>
+        <v>4456</v>
       </c>
       <c r="C2287" s="10">
         <v>2021</v>
       </c>
       <c r="D2287" s="10" t="s">
-        <v>4459</v>
+        <v>4458</v>
       </c>
       <c r="E2287" s="13"/>
       <c r="F2287" s="18" t="s">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="G2287" s="10"/>
       <c r="H2287" s="13"/>
@@ -69798,20 +69974,20 @@
     </row>
     <row r="2288" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2288" s="9" t="s">
+        <v>4263</v>
+      </c>
+      <c r="B2288" s="9" t="s">
         <v>4264</v>
-      </c>
-      <c r="B2288" s="9" t="s">
-        <v>4265</v>
       </c>
       <c r="C2288" s="10">
         <v>2015</v>
       </c>
       <c r="D2288" s="10" t="s">
-        <v>4456</v>
+        <v>4455</v>
       </c>
       <c r="E2288" s="13"/>
       <c r="F2288" s="18" t="s">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="G2288" s="10"/>
       <c r="H2288" s="13"/>
@@ -69826,20 +70002,20 @@
     </row>
     <row r="2289" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2289" s="9" t="s">
+        <v>4265</v>
+      </c>
+      <c r="B2289" s="9" t="s">
         <v>4266</v>
-      </c>
-      <c r="B2289" s="9" t="s">
-        <v>4267</v>
       </c>
       <c r="C2289" s="10">
         <v>2021</v>
       </c>
       <c r="D2289" s="10" t="s">
-        <v>4454</v>
+        <v>4453</v>
       </c>
       <c r="E2289" s="13"/>
       <c r="F2289" s="18" t="s">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="G2289" s="10"/>
       <c r="H2289" s="13"/>
@@ -69854,20 +70030,20 @@
     </row>
     <row r="2290" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2290" s="9" t="s">
+        <v>4267</v>
+      </c>
+      <c r="B2290" s="9" t="s">
         <v>4268</v>
-      </c>
-      <c r="B2290" s="9" t="s">
-        <v>4269</v>
       </c>
       <c r="C2290" s="10">
         <v>2010</v>
       </c>
       <c r="D2290" s="10" t="s">
-        <v>4452</v>
+        <v>4451</v>
       </c>
       <c r="E2290" s="13"/>
       <c r="F2290" s="18" t="s">
-        <v>4451</v>
+        <v>4450</v>
       </c>
       <c r="G2290" s="10"/>
       <c r="H2290" s="13"/>
@@ -69879,6 +70055,261 @@
       <c r="N2290" s="13"/>
       <c r="O2290" s="13"/>
       <c r="P2290" s="13"/>
+    </row>
+    <row r="2291" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2291" s="9" t="s">
+        <v>4549</v>
+      </c>
+      <c r="B2291" s="9" t="s">
+        <v>4547</v>
+      </c>
+      <c r="C2291" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2291" s="31" t="s">
+        <v>4548</v>
+      </c>
+      <c r="F2291" s="28" t="s">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2292" s="9" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B2292" s="9" t="s">
+        <v>4551</v>
+      </c>
+      <c r="C2292" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2292" s="31" t="s">
+        <v>4553</v>
+      </c>
+      <c r="F2292" s="28" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2293" s="9" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B2293" s="9" t="s">
+        <v>4559</v>
+      </c>
+      <c r="C2293" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2293" s="31" t="s">
+        <v>4460</v>
+      </c>
+      <c r="F2293" s="28" t="s">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2294" s="9" t="s">
+        <v>4565</v>
+      </c>
+      <c r="B2294" s="9" t="s">
+        <v>4562</v>
+      </c>
+      <c r="C2294" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2294" s="31" t="s">
+        <v>4563</v>
+      </c>
+      <c r="F2294" s="28" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2295" s="9" t="s">
+        <v>4569</v>
+      </c>
+      <c r="B2295" s="35" t="s">
+        <v>4566</v>
+      </c>
+      <c r="C2295" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2295" s="31" t="s">
+        <v>4568</v>
+      </c>
+      <c r="F2295" s="28" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2296" s="9" t="s">
+        <v>4571</v>
+      </c>
+      <c r="B2296" s="9" t="s">
+        <v>4570</v>
+      </c>
+      <c r="C2296" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2296" s="31" t="s">
+        <v>4572</v>
+      </c>
+      <c r="F2296" s="28" t="s">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2297" s="9" t="s">
+        <v>4211</v>
+      </c>
+      <c r="B2297" s="9" t="s">
+        <v>4575</v>
+      </c>
+      <c r="C2297" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2297" s="31" t="s">
+        <v>4576</v>
+      </c>
+      <c r="F2297" s="28" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2298" s="9" t="s">
+        <v>3050</v>
+      </c>
+      <c r="B2298" s="9" t="s">
+        <v>4577</v>
+      </c>
+      <c r="C2298" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2298" s="31" t="s">
+        <v>4578</v>
+      </c>
+      <c r="F2298" s="28" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2299" s="9" t="s">
+        <v>4581</v>
+      </c>
+      <c r="B2299" s="9" t="s">
+        <v>4580</v>
+      </c>
+      <c r="C2299" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2299" s="31" t="s">
+        <v>4583</v>
+      </c>
+      <c r="F2299" s="28" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2300" s="9" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B2300" s="9" t="s">
+        <v>4586</v>
+      </c>
+      <c r="C2300" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2300" s="31" t="s">
+        <v>4587</v>
+      </c>
+      <c r="F2300" s="28" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2301" s="9" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B2301" s="9" t="s">
+        <v>4588</v>
+      </c>
+      <c r="C2301" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2301" s="31" t="s">
+        <v>4435</v>
+      </c>
+      <c r="F2301" s="28" t="s">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2302" s="9" t="s">
+        <v>4592</v>
+      </c>
+      <c r="B2302" s="9" t="s">
+        <v>4590</v>
+      </c>
+      <c r="C2302" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2302" s="31" t="s">
+        <v>4593</v>
+      </c>
+      <c r="F2302" s="28" t="s">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2303" s="9" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B2303" s="9" t="s">
+        <v>4594</v>
+      </c>
+      <c r="C2303" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2303" s="31" t="s">
+        <v>4595</v>
+      </c>
+      <c r="F2303" s="28" t="s">
+        <v>4597</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2304" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2304" s="9" t="s">
+        <v>4598</v>
+      </c>
+      <c r="C2304" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2304" s="31" t="s">
+        <v>4599</v>
+      </c>
+      <c r="F2304" s="28" t="s">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2305" s="9" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B2305" s="9" t="s">
+        <v>4601</v>
+      </c>
+      <c r="C2305" s="10">
+        <v>2022</v>
+      </c>
+      <c r="D2305" s="31" t="s">
+        <v>3138</v>
+      </c>
+      <c r="F2305" s="28" t="s">
+        <v>4602</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -69983,8 +70414,25 @@
     <hyperlink ref="F1269" r:id="rId99" xr:uid="{A47B020D-2445-4486-917E-CE6B897A3A79}"/>
     <hyperlink ref="F78" r:id="rId100" xr:uid="{25CD4BE8-5D6E-449F-B04C-9012BB70E366}"/>
     <hyperlink ref="F1690" r:id="rId101" xr:uid="{07FD156A-D047-466C-A2C8-99C35A05C287}"/>
+    <hyperlink ref="F2291" r:id="rId102" xr:uid="{91FF9FDA-E801-4779-B73D-80BB797F007A}"/>
+    <hyperlink ref="F2292" r:id="rId103" xr:uid="{507304BE-A2DD-485D-B35B-F901C192612B}"/>
+    <hyperlink ref="F2272" r:id="rId104" xr:uid="{66200461-5263-40B9-93FE-B7A60669BB86}"/>
+    <hyperlink ref="F2271" r:id="rId105" xr:uid="{8B730D69-BC9E-4AE9-B286-EE9341038908}"/>
+    <hyperlink ref="F2293" r:id="rId106" xr:uid="{C5AF08FC-35D4-4E18-B456-117899721FE9}"/>
+    <hyperlink ref="F2294" r:id="rId107" xr:uid="{7D3D1E47-3C8F-4133-B29D-C357E542E2F4}"/>
+    <hyperlink ref="F2295" r:id="rId108" xr:uid="{979BBF8E-2B30-48A3-87E7-C76064C09454}"/>
+    <hyperlink ref="F2296" r:id="rId109" xr:uid="{25D3B1F4-EEA0-42A5-9E85-C7E2654A7629}"/>
+    <hyperlink ref="F2297" r:id="rId110" xr:uid="{438F118B-5F86-4CD1-8390-55059FA59674}"/>
+    <hyperlink ref="F2298" r:id="rId111" xr:uid="{42DCFA2A-7A59-4AAF-BC73-CD64F952E4F1}"/>
+    <hyperlink ref="F2299" r:id="rId112" xr:uid="{E0E6F7F8-AC03-4152-96E8-C2E91E66D9C7}"/>
+    <hyperlink ref="F2300" r:id="rId113" xr:uid="{7037BBAB-1C05-479A-8F26-F6449446031F}"/>
+    <hyperlink ref="F2301" r:id="rId114" xr:uid="{3D923377-3A86-41AC-A5DB-DE8D7E8B6B3E}"/>
+    <hyperlink ref="F2302" r:id="rId115" xr:uid="{3A77A0D6-1B5A-4520-B622-025176BF4BF4}"/>
+    <hyperlink ref="F2303" r:id="rId116" xr:uid="{BECB5302-4106-496F-8A44-B9622EEFDA7B}"/>
+    <hyperlink ref="F2304" r:id="rId117" xr:uid="{F2DE95AE-CADE-4BBF-B9C8-E4688BDB9C0F}"/>
+    <hyperlink ref="F2305" r:id="rId118" xr:uid="{79A253F1-43EE-4A63-B0E0-CFACB9F8B51B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId102"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId119"/>
 </worksheet>
 </file>